--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4386</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Travis Michael Head</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +869,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>27/09/2016</t>
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1632,7 +1696,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1743,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2364,7 +2426,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2416,7 +2478,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2468,7 +2530,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2520,7 +2582,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2624,7 +2686,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2676,7 +2738,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2728,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2936,7 +2998,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2988,7 +3050,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3040,7 +3102,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3092,7 +3154,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3144,7 +3206,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3196,7 +3258,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3248,7 +3310,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3287,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +3371,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3346,7 +3408,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3383,7 +3445,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3420,7 +3482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3457,7 +3519,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3494,7 +3556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3531,7 +3593,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3568,7 +3630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3605,7 +3667,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3642,7 +3704,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3679,7 +3741,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3716,7 +3778,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3753,7 +3815,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3790,7 +3852,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3827,7 +3889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3864,7 +3926,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3901,7 +3963,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3938,7 +4000,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3975,7 +4037,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4012,7 +4074,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4049,7 +4111,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4086,7 +4148,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4123,7 +4185,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4160,7 +4222,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4197,7 +4259,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4234,7 +4296,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4271,7 +4333,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4308,7 +4370,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4345,7 +4407,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4382,7 +4444,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4419,7 +4481,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4445,6 +4507,541 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>0/9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.34%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.32%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.27%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.17%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.63%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.15%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.27%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4597,10 +4598,6 @@
           <t>4167</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4643,10 +4640,6 @@
           <t>4169</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4689,10 +4682,6 @@
           <t>4222</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4795,255 +4784,518 @@
           <t>4565</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.17%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.63%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.15%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.27%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.17%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.63%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>42.15%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>12.27%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4598,6 +4597,10 @@
           <t>4167</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4640,6 +4643,10 @@
           <t>4169</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4682,6 +4689,10 @@
           <t>4222</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4784,6 +4795,10 @@
           <t>4565</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4809,6 +4824,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4851,6 +4867,10 @@
           <t>4600</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4893,6 +4913,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4905,6 +4929,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4917,6 +4945,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5012,290 +5044,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3968</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3973</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3975</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3977</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3981</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3984</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4032</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4035</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4041</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4069</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4076</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4108</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4115</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4386.xlsx
@@ -4521,7 +4521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4564,11 +4564,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4167</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -4610,15 +4610,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4168</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.34%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4640,7 +4640,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -4656,27 +4656,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.32%</t>
-        </is>
-      </c>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4686,13 +4672,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4222</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.53%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4702,27 +4702,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4732,27 +4720,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4226</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.14%</t>
-        </is>
-      </c>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4762,43 +4736,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.27%</t>
+          <t>23.29%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.43%</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4808,22 +4796,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
@@ -4834,27 +4812,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.17%</t>
-        </is>
-      </c>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4864,7 +4828,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -4880,25 +4844,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.63%</t>
+          <t>15.08%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4910,7 +4874,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -4926,13 +4890,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.55%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4942,7 +4920,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -4958,15 +4936,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4976,7 +4954,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4988,25 +4966,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>42.15%</t>
+          <t>14.45%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5018,28 +4996,866 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.69%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.62%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19.31%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>17.36%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>48.73%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8.91%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.34%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.32%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.27%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12.17%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10.63%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>42.15%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>12.27%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
